--- a/result_raw.xlsx
+++ b/result_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E0CD01D-746E-4681-888A-751574EEE17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F383F050-A624-43C7-AB15-718CA89D72B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -127,9 +127,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2555,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75AD18-D224-4958-AF44-42CA3D0344E6}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,8 +2622,8 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>7.9850000000000003</v>
+      <c r="D2" s="2">
+        <v>42.198999999999998</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2622,8 +2643,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>9.7050000000000001</v>
+      <c r="D3" s="3">
+        <v>39.851999999999997</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2643,8 +2664,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>20.175000000000001</v>
+      <c r="D4" s="4">
+        <v>54.526000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2657,8 +2678,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1.68</v>
+      <c r="D5" s="5">
+        <v>8.8840000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2671,8 +2692,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1.129</v>
+      <c r="D6" s="6">
+        <v>10.468</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2685,8 +2706,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>2.6019999999999999</v>
+      <c r="D7" s="7">
+        <v>9.08</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,8 +2720,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>0.20599999999999999</v>
+      <c r="D8" s="8">
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2713,8 +2734,8 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>8.1639999999999997</v>
+      <c r="D9" s="9">
+        <v>27.617999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2727,8 +2748,8 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>9.6690000000000005</v>
+      <c r="D10" s="10">
+        <v>29.65</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2741,8 +2762,8 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>19.658000000000001</v>
+      <c r="D11" s="11">
+        <v>51.231999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,8 +2776,8 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>0.623</v>
+      <c r="D12" s="12">
+        <v>2.8650000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2769,8 +2790,8 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>1.0249999999999999</v>
+      <c r="D13" s="13">
+        <v>2.778</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2783,8 +2804,8 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>2.548</v>
+      <c r="D14" s="14">
+        <v>4.9059999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,8 +2818,8 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>1.5820000000000001</v>
+      <c r="D15" s="15">
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2909,8 +2930,8 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>1.0224170319348778</v>
+      <c r="D23" s="17">
+        <v>0.65447048508258487</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,8 +2944,8 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>0.99629057187017001</v>
+      <c r="D24" s="18">
+        <v>0.74400281039847438</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,8 +2958,8 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25">
-        <v>0.97437422552664188</v>
+      <c r="D25" s="19">
+        <v>0.93958845321497997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,8 +2972,8 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>0.37083333333333335</v>
+      <c r="D26" s="20">
+        <v>0.32248986942818553</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,8 +2986,8 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>0.90788308237378201</v>
+      <c r="D27" s="21">
+        <v>0.26538020634314102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,8 +3000,8 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>0.97924673328209078</v>
+      <c r="D28" s="22">
+        <v>0.54030837004405285</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,8 +3014,8 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>7.6796116504854375</v>
+      <c r="D29" s="16">
+        <v>0.24209860935524652</v>
       </c>
     </row>
   </sheetData>
@@ -3008,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B09BFD-7EBE-48FA-9D75-CCD963D071F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/result_raw.xlsx
+++ b/result_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F383F050-A624-43C7-AB15-718CA89D72B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C355B11B-92D9-416B-ACD4-0A671FBA7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{689C0A45-BDCC-4C6C-9B57-71366785D0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -127,30 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,25 +663,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42.198999999999998</c:v>
+                  <c:v>34.408999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.851999999999997</c:v>
+                  <c:v>38.372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.526000000000003</c:v>
+                  <c:v>53.561999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8840000000000003</c:v>
+                  <c:v>33.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.468</c:v>
+                  <c:v>4.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.08</c:v>
+                  <c:v>5.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5820000000000001</c:v>
+                  <c:v>1.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,25 +754,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>27.617999999999999</c:v>
+                  <c:v>32.517000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.65</c:v>
+                  <c:v>37.418999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.231999999999999</c:v>
+                  <c:v>52.914000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8650000000000002</c:v>
+                  <c:v>1.196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.778</c:v>
+                  <c:v>2.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9059999999999997</c:v>
+                  <c:v>6.7279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38300000000000001</c:v>
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D75AD18-D224-4958-AF44-42CA3D0344E6}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,8 +2601,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>42.198999999999998</v>
+      <c r="D2">
+        <f>raw_tabular!B2</f>
+        <v>34.408999999999999</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2643,8 +2623,9 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
-        <v>39.851999999999997</v>
+      <c r="D3">
+        <f>raw_tabular!C2</f>
+        <v>38.372</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2664,8 +2645,9 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>54.526000000000003</v>
+      <c r="D4">
+        <f>raw_tabular!D2</f>
+        <v>53.561999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2678,8 +2660,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
-        <v>8.8840000000000003</v>
+      <c r="D5">
+        <f>raw_tabular!E2</f>
+        <v>33.9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2692,8 +2675,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
-        <v>10.468</v>
+      <c r="D6">
+        <f>raw_tabular!F2</f>
+        <v>4.2610000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2706,8 +2690,9 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>9.08</v>
+      <c r="D7">
+        <f>raw_tabular!G2</f>
+        <v>5.48</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2720,8 +2705,9 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
-        <v>1.5820000000000001</v>
+      <c r="D8">
+        <f>raw_tabular!H2</f>
+        <v>1.042</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2734,8 +2720,9 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
-        <v>27.617999999999999</v>
+      <c r="D9">
+        <f>raw_tabular!B3</f>
+        <v>32.517000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,8 +2735,9 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>29.65</v>
+      <c r="D10">
+        <f>raw_tabular!C3</f>
+        <v>37.418999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,8 +2750,9 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="11">
-        <v>51.231999999999999</v>
+      <c r="D11">
+        <f>raw_tabular!D3</f>
+        <v>52.914000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2776,8 +2765,9 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
-        <v>2.8650000000000002</v>
+      <c r="D12">
+        <f>raw_tabular!E3</f>
+        <v>1.196</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2790,8 +2780,9 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13">
-        <v>2.778</v>
+      <c r="D13">
+        <f>raw_tabular!F3</f>
+        <v>2.1819999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,8 +2795,9 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14">
-        <v>4.9059999999999997</v>
+      <c r="D14">
+        <f>raw_tabular!G3</f>
+        <v>6.7279999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2818,8 +2810,9 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15">
-        <v>0.38300000000000001</v>
+      <c r="D15">
+        <f>raw_tabular!H3</f>
+        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2930,8 +2923,9 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="17">
-        <v>0.65447048508258487</v>
+      <c r="D23">
+        <f>D9/D2</f>
+        <v>0.94501438577116459</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,8 +2938,9 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="18">
-        <v>0.74400281039847438</v>
+      <c r="D24">
+        <f t="shared" ref="D24:D29" si="0">D10/D3</f>
+        <v>0.97516418221619927</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,8 +2953,9 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="19">
-        <v>0.93958845321497997</v>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.9879018707292484</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,8 +2968,9 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="20">
-        <v>0.32248986942818553</v>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.5280235988200591E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,8 +2983,9 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="21">
-        <v>0.26538020634314102</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.5120863647031213</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,8 +2998,9 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="22">
-        <v>0.54030837004405285</v>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.227737226277372</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,8 +3013,9 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="16">
-        <v>0.24209860935524652</v>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.38483685220729369</v>
       </c>
     </row>
   </sheetData>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B09BFD-7EBE-48FA-9D75-CCD963D071F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,25 +3078,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>42.198999999999998</v>
+        <v>34.408999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>39.851999999999997</v>
+        <v>38.372</v>
       </c>
       <c r="D2" s="1">
-        <v>54.526000000000003</v>
+        <v>53.561999999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>8.8840000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="F2" s="1">
-        <v>10.468</v>
+        <v>4.2610000000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>9.08</v>
+        <v>5.48</v>
       </c>
       <c r="H2" s="1">
-        <v>1.5820000000000001</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,25 +3104,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>27.617999999999999</v>
+        <v>32.517000000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>29.65</v>
+        <v>37.418999999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>51.231999999999999</v>
+        <v>52.914000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>2.8650000000000002</v>
+        <v>1.196</v>
       </c>
       <c r="F3" s="1">
-        <v>2.778</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>4.9059999999999997</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>0.38300000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,31 +3157,31 @@
       </c>
       <c r="B5">
         <f>B3/B2</f>
-        <v>0.65447048508258487</v>
+        <v>0.94501438577116459</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:H5" si="0">C3/C2</f>
-        <v>0.74400281039847438</v>
+        <v>0.97516418221619927</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.93958845321497997</v>
+        <v>0.9879018707292484</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.32248986942818553</v>
+        <f>E3/E2</f>
+        <v>3.5280235988200591E-2</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.26538020634314102</v>
+        <f>F3/F2</f>
+        <v>0.5120863647031213</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.54030837004405285</v>
+        <f>G3/G2</f>
+        <v>1.227737226277372</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.24209860935524652</v>
+        <f>H3/H2</f>
+        <v>0.38483685220729369</v>
       </c>
     </row>
   </sheetData>
